--- a/刷单费用明细1.xlsx
+++ b/刷单费用明细1.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="9月" sheetId="2" r:id="rId1"/>
+    <sheet name="10" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>商品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +110,38 @@
   </si>
   <si>
     <t>梁乐业</t>
+  </si>
+  <si>
+    <t>36977051763     </t>
+  </si>
+  <si>
+    <t>蒋波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙大华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37215117395     </t>
+  </si>
+  <si>
+    <t>882976877938566804</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882965895032697117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄凌秋</t>
+  </si>
+  <si>
+    <t>882976830222809238</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李潭龙</t>
   </si>
 </sst>
 </file>
@@ -118,7 +151,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +203,25 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF50545B"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Simsun"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -191,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -230,6 +282,16 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -536,11 +598,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="14.375" customWidth="1"/>
@@ -554,7 +616,7 @@
     <col min="12" max="12" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="30.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="14.25">
       <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
@@ -624,7 +686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="14.25">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
@@ -659,7 +721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="14.25">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
@@ -694,7 +756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" s="6" customFormat="1" ht="14.25">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
@@ -727,7 +789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" s="6" customFormat="1" ht="14.25">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -765,4 +827,147 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="14.25">
+      <c r="D2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="6">
+        <v>65.7</v>
+      </c>
+      <c r="J2" s="6">
+        <v>3</v>
+      </c>
+      <c r="K2" s="6">
+        <v>68.7</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="14.25">
+      <c r="D3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="I3" s="6">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="J3" s="6">
+        <v>3</v>
+      </c>
+      <c r="K3" s="6">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="14.25">
+      <c r="D4" s="14">
+        <v>37651051223</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="I4" s="6">
+        <v>48.8</v>
+      </c>
+      <c r="J4" s="6">
+        <v>3</v>
+      </c>
+      <c r="K4" s="6">
+        <v>51.8</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" ht="14.25">
+      <c r="D5" s="7"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" s="6" customFormat="1" ht="14.25">
+      <c r="D6" s="7"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/刷单费用明细1.xlsx
+++ b/刷单费用明细1.xlsx
@@ -10,7 +10,7 @@
     <sheet name="9月" sheetId="2" r:id="rId1"/>
     <sheet name="10" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -243,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -292,6 +292,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -834,7 +835,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -954,8 +955,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="6" customFormat="1" ht="14.25">
-      <c r="D5" s="7"/>
-      <c r="E5" s="17"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="10"/>
       <c r="G5" s="11"/>
     </row>

--- a/刷单费用明细1.xlsx
+++ b/刷单费用明细1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>商品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,54 @@
   </si>
   <si>
     <t>李潭龙</t>
+  </si>
+  <si>
+    <t>39630650305     </t>
+  </si>
+  <si>
+    <t>孙先生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39640919566     </t>
+  </si>
+  <si>
+    <t>汪雪寒</t>
+  </si>
+  <si>
+    <t>883072596164233571</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39625601061     </t>
+  </si>
+  <si>
+    <t>883072643761314389</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39656464771     </t>
+  </si>
+  <si>
+    <t>883073985126980046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾令源</t>
+  </si>
+  <si>
+    <t>39651043791     </t>
+  </si>
+  <si>
+    <t>883073968033021450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39664405383     </t>
+  </si>
+  <si>
+    <t>883073973021081056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -287,12 +335,10 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -832,16 +878,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="17" customWidth="1"/>
     <col min="7" max="7" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -913,7 +959,7 @@
       <c r="E3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="11"/>
@@ -937,7 +983,7 @@
       <c r="E4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>34</v>
       </c>
       <c r="G4" s="11"/>
@@ -955,16 +1001,130 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="6" customFormat="1" ht="14.25">
-      <c r="D5" s="14"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="10"/>
+      <c r="D5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="G5" s="11"/>
+      <c r="I5" s="6">
+        <v>43.8</v>
+      </c>
+      <c r="J5" s="6">
+        <v>3</v>
+      </c>
+      <c r="K5" s="6">
+        <v>46.8</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:12" s="6" customFormat="1" ht="14.25">
-      <c r="D6" s="7"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="10"/>
+      <c r="D6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="G6" s="11"/>
+      <c r="I6" s="6">
+        <v>43.8</v>
+      </c>
+      <c r="J6" s="6">
+        <v>3</v>
+      </c>
+      <c r="K6" s="6">
+        <v>46.8</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.25">
+      <c r="D7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="6">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="J7" s="6">
+        <v>3</v>
+      </c>
+      <c r="K7" s="6">
+        <v>41.8</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.25">
+      <c r="D8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="6">
+        <v>47.7</v>
+      </c>
+      <c r="J8" s="6">
+        <v>3</v>
+      </c>
+      <c r="K8" s="6">
+        <v>50.7</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.25">
+      <c r="D9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="6">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="J9" s="6">
+        <v>3</v>
+      </c>
+      <c r="K9" s="6">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.25">
+      <c r="D10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="6">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="K10" s="6">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/刷单费用明细1.xlsx
+++ b/刷单费用明细1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
   <si>
     <t>商品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,6 +189,23 @@
   </si>
   <si>
     <t>883073973021081056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38190507308     </t>
+  </si>
+  <si>
+    <t>882998045622556703</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦曼玉</t>
+  </si>
+  <si>
+    <t>38296634062     </t>
+  </si>
+  <si>
+    <t>882998045622556703</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -878,10 +895,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1126,6 +1143,40 @@
         <v>13</v>
       </c>
     </row>
+    <row r="11" spans="1:12" ht="14.25">
+      <c r="D11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="6">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="K11" s="6">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14.25">
+      <c r="D12" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="6">
+        <v>48.8</v>
+      </c>
+      <c r="K12" s="6">
+        <v>48.8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/刷单费用明细1.xlsx
+++ b/刷单费用明细1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
   <si>
     <t>商品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,6 +206,54 @@
   </si>
   <si>
     <t>882998045622556703</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40122854540     </t>
+  </si>
+  <si>
+    <t>883104679541586006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓锡勇</t>
+  </si>
+  <si>
+    <t>39953977515     </t>
+  </si>
+  <si>
+    <t>883103180289546602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李广龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40509629668     </t>
+  </si>
+  <si>
+    <t>陈健</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40510112164     </t>
+  </si>
+  <si>
+    <t>40666508681     </t>
+  </si>
+  <si>
+    <t>883125112424364884</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龚稽心</t>
+  </si>
+  <si>
+    <t>40658258319     </t>
+  </si>
+  <si>
+    <t>883125112424364884</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -895,10 +943,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1159,6 +1207,9 @@
       <c r="K11" s="6">
         <v>35.799999999999997</v>
       </c>
+      <c r="L11" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="14.25">
       <c r="D12" s="14" t="s">
@@ -1175,6 +1226,137 @@
       </c>
       <c r="K12" s="6">
         <v>48.8</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="14.25">
+      <c r="D13" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="6">
+        <v>63.7</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13" s="6">
+        <v>66.7</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="14.25">
+      <c r="D14" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="K14" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="14.25">
+      <c r="D15">
+        <v>40341577762</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="6">
+        <v>74.7</v>
+      </c>
+      <c r="K15" s="6">
+        <v>74.7</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="14.25">
+      <c r="D16" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="6">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16" s="6">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" ht="14.25">
+      <c r="D17" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="6">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="K17" s="6">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" ht="14.25">
+      <c r="D18" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="6">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18" s="6">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" ht="14.25">
+      <c r="D19" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="K19" s="6">
+        <v>9.9</v>
       </c>
     </row>
   </sheetData>

--- a/刷单费用明细1.xlsx
+++ b/刷单费用明细1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="9月" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="234">
   <si>
     <t>商品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,6 +254,669 @@
   </si>
   <si>
     <t>883125112424364884</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百香果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36529937936</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882939628862344682</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐再洪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">37904049101 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882990418386667814</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赖绍燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火龙果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38125231605</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882992791099950743</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈永权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">38130988301 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38633878951</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>883010589921344682</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦荣娇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小芋头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39345543925</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>883052608285142662</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张悦涵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39351711489</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39391880195</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>883025841237112369</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温伟茂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39399501236</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>883057041210506208</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俞萍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39399260458</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>883059674856637511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘海圣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39481128025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>883062838839081056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴女士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39498145515</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>883066506359475995</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39532479406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>883066473593213379</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晓晓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39637330165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>883073956605435591</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢丽清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39723583405 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>883069907373344682</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶小姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39783169636</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>883088255346849632</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄施梦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39821286998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>883091398147213379</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卓兰香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40157078187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>883110386263011359</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傅卓麟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">40152561634 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>883110402318990147</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二傻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">40447865006 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>883120914353819339</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁振林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>883129400771021000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴思敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全春晓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香插</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红心火龙果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红心火龙果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882747575216001000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李田芳（莉莉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23159588015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882746959605354783</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡思源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23135259568</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882746977538708228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全春眉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23132101092</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882757658125021450</t>
+  </si>
+  <si>
+    <t>龚稽心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23150970261</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882757652573819339</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23230036043</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882757631452980046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢华丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">23231454018 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882757646745667814</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫双华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23404362294</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882798669218768824</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23404122006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882798679484576905</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23420084158</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882800986959657713</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡兰珍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">23405303690 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882804479412778925</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">23386028437  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882808992901122460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙德阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23467033451</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882811468745900248</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">23437178704 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882817706619849632</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏勇坚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23564151330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882829098932102268</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李尚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23514662389</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882830855149576905</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23513947336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882709846016607218</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁小姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23649596366</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882829876091809238</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李艳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23617544685 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882709851837859733</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施秋敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23618286452</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882709878270283076</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王春玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23704647551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882709847618112369</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全丽燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23799694662</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882710100340990147</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘胜彬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23981737694</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882848768455051753</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄萍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24024998742</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882850622851617319</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10+10运费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24050373014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882851781718738521</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张族吴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24078857972</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882854754204172965</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏振飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24673300637</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882869133832283076</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俞稀庆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25191553462</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882880430801152763</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎超约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25144153876</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882884517314485096</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙凤萍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25286295157</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882895031343758723</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴进忠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25105141136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882899214859839531</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘宁燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25396750072</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882908204712304288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁金兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25499002915</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882911804161001258</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素銀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红木纸巾盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36114553800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882916282382263874</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦芳圆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -336,18 +999,82 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -356,7 +1083,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -404,6 +1131,133 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -708,10 +1562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -814,9 +1668,6 @@
       <c r="F3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="11">
-        <v>42623.740393518521</v>
-      </c>
       <c r="H3" s="6">
         <v>1</v>
       </c>
@@ -934,7 +1785,1295 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="1:12" s="21" customFormat="1">
+      <c r="E7" s="55"/>
+    </row>
+    <row r="8" spans="1:12" ht="18" customHeight="1">
+      <c r="A8" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D8" s="24">
+        <v>23213097443</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="58">
+        <v>42625.705555555556</v>
+      </c>
+      <c r="H8" s="23">
+        <v>1</v>
+      </c>
+      <c r="I8" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J8" s="23">
+        <v>3</v>
+      </c>
+      <c r="K8" s="23">
+        <v>20</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18" customHeight="1">
+      <c r="A9" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="50"/>
+      <c r="C9" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="58">
+        <v>42625.56527777778</v>
+      </c>
+      <c r="H9" s="23">
+        <v>1</v>
+      </c>
+      <c r="I9" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J9" s="23">
+        <v>3</v>
+      </c>
+      <c r="K9" s="23">
+        <v>20</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18" customHeight="1">
+      <c r="A10" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="50"/>
+      <c r="C10" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="58">
+        <v>42625.540972222225</v>
+      </c>
+      <c r="H10" s="23">
+        <v>1</v>
+      </c>
+      <c r="I10" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J10" s="23">
+        <v>3</v>
+      </c>
+      <c r="K10" s="23">
+        <v>20</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18" customHeight="1">
+      <c r="A11" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="58">
+        <v>42626.397222222222</v>
+      </c>
+      <c r="H11" s="23">
+        <v>1</v>
+      </c>
+      <c r="I11" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J11" s="23">
+        <v>3</v>
+      </c>
+      <c r="K11" s="23">
+        <v>20</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18" customHeight="1">
+      <c r="A12" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="58">
+        <v>42626.476388888892</v>
+      </c>
+      <c r="H12" s="23">
+        <v>1</v>
+      </c>
+      <c r="I12" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J12" s="23">
+        <v>3</v>
+      </c>
+      <c r="K12" s="23">
+        <v>20</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18" customHeight="1">
+      <c r="A13" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="58">
+        <v>42626.644444444442</v>
+      </c>
+      <c r="H13" s="23">
+        <v>1</v>
+      </c>
+      <c r="I13" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J13" s="23">
+        <v>3</v>
+      </c>
+      <c r="K13" s="23">
+        <v>20</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18" customHeight="1">
+      <c r="A14" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="50"/>
+      <c r="C14" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="58">
+        <v>42626.71875</v>
+      </c>
+      <c r="H14" s="23">
+        <v>1</v>
+      </c>
+      <c r="I14" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J14" s="23">
+        <v>3</v>
+      </c>
+      <c r="K14" s="23">
+        <v>20</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="50"/>
+      <c r="C15" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="58">
+        <v>42631.472222222219</v>
+      </c>
+      <c r="H15" s="23">
+        <v>1</v>
+      </c>
+      <c r="I15" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J15" s="23">
+        <v>3</v>
+      </c>
+      <c r="K15" s="23">
+        <v>23</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18" customHeight="1">
+      <c r="A16" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="50"/>
+      <c r="C16" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" s="58">
+        <v>42631.46875</v>
+      </c>
+      <c r="H16" s="23">
+        <v>1</v>
+      </c>
+      <c r="I16" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J16" s="23">
+        <v>3</v>
+      </c>
+      <c r="K16" s="23">
+        <v>23</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18" customHeight="1">
+      <c r="A17" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="58">
+        <v>42631.736111111109</v>
+      </c>
+      <c r="H17" s="23">
+        <v>1</v>
+      </c>
+      <c r="I17" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J17" s="23">
+        <v>3</v>
+      </c>
+      <c r="K17" s="23">
+        <v>23</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="18" customHeight="1">
+      <c r="A18" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="50"/>
+      <c r="C18" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="58">
+        <v>42631.805555555555</v>
+      </c>
+      <c r="H18" s="23">
+        <v>1</v>
+      </c>
+      <c r="I18" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J18" s="23">
+        <v>3</v>
+      </c>
+      <c r="K18" s="23">
+        <v>20</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="18" customHeight="1">
+      <c r="A19" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="50"/>
+      <c r="C19" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" s="58">
+        <v>42632.611111111109</v>
+      </c>
+      <c r="H19" s="23">
+        <v>1</v>
+      </c>
+      <c r="I19" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J19" s="23">
+        <v>3</v>
+      </c>
+      <c r="K19" s="23">
+        <v>23</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="18" customHeight="1">
+      <c r="A20" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" s="58">
+        <v>42632.761111111111</v>
+      </c>
+      <c r="H20" s="23">
+        <v>1</v>
+      </c>
+      <c r="I20" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J20" s="23">
+        <v>3</v>
+      </c>
+      <c r="K20" s="23">
+        <v>20</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="18" customHeight="1">
+      <c r="A21" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" s="58">
+        <v>42633.538888888892</v>
+      </c>
+      <c r="H21" s="23">
+        <v>1</v>
+      </c>
+      <c r="I21" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J21" s="23">
+        <v>3</v>
+      </c>
+      <c r="K21" s="23">
+        <v>20</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="18" customHeight="1">
+      <c r="A22" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="50"/>
+      <c r="C22" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" s="58">
+        <v>42634.519444444442</v>
+      </c>
+      <c r="H22" s="23">
+        <v>1</v>
+      </c>
+      <c r="I22" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J22" s="23">
+        <v>3</v>
+      </c>
+      <c r="K22" s="23">
+        <v>20</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="18" customHeight="1">
+      <c r="A23" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="50"/>
+      <c r="C23" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" s="58">
+        <v>42634.701388888891</v>
+      </c>
+      <c r="H23" s="23">
+        <v>1</v>
+      </c>
+      <c r="I23" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J23" s="23">
+        <v>3</v>
+      </c>
+      <c r="K23" s="23">
+        <v>20</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="18" customHeight="1">
+      <c r="A24" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="50"/>
+      <c r="C24" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" s="58">
+        <v>42634.828472222223</v>
+      </c>
+      <c r="H24" s="23">
+        <v>1</v>
+      </c>
+      <c r="I24" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J24" s="23">
+        <v>3</v>
+      </c>
+      <c r="K24" s="23">
+        <v>20</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="18" customHeight="1">
+      <c r="A25" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="50"/>
+      <c r="C25" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="F25" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="G25" s="58">
+        <v>42635.384027777778</v>
+      </c>
+      <c r="H25" s="23">
+        <v>1</v>
+      </c>
+      <c r="I25" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J25" s="23">
+        <v>3</v>
+      </c>
+      <c r="K25" s="23">
+        <v>20</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="18" customHeight="1">
+      <c r="A26" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="50"/>
+      <c r="C26" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="G26" s="58">
+        <v>42635.646458333336</v>
+      </c>
+      <c r="H26" s="23">
+        <v>1</v>
+      </c>
+      <c r="I26" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J26" s="23">
+        <v>3</v>
+      </c>
+      <c r="K26" s="23">
+        <v>20</v>
+      </c>
+      <c r="L26" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="18" customHeight="1">
+      <c r="A27" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="50"/>
+      <c r="C27" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="F27" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" s="58">
+        <v>42635.694027777776</v>
+      </c>
+      <c r="H27" s="23">
+        <v>1</v>
+      </c>
+      <c r="I27" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J27" s="23">
+        <v>3</v>
+      </c>
+      <c r="K27" s="23">
+        <v>20</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="18" customHeight="1">
+      <c r="A28" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="50"/>
+      <c r="C28" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28" s="58">
+        <v>42635.837870370371</v>
+      </c>
+      <c r="H28" s="23">
+        <v>1</v>
+      </c>
+      <c r="I28" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J28" s="23">
+        <v>3</v>
+      </c>
+      <c r="K28" s="23">
+        <v>23</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="18" customHeight="1">
+      <c r="A29" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="50"/>
+      <c r="C29" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="G29" s="58">
+        <v>42635.936377314814</v>
+      </c>
+      <c r="H29" s="23">
+        <v>1</v>
+      </c>
+      <c r="I29" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J29" s="23">
+        <v>3</v>
+      </c>
+      <c r="K29" s="23">
+        <v>23</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="18" customHeight="1">
+      <c r="A30" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="50"/>
+      <c r="C30" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="F30" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="G30" s="58">
+        <v>42636.54791666667</v>
+      </c>
+      <c r="H30" s="23">
+        <v>1</v>
+      </c>
+      <c r="I30" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J30" s="23">
+        <v>3</v>
+      </c>
+      <c r="K30" s="23">
+        <v>20</v>
+      </c>
+      <c r="L30" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="18" customHeight="1">
+      <c r="A31" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="50"/>
+      <c r="C31" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="F31" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="62">
+        <v>42636.664583333331</v>
+      </c>
+      <c r="H31" s="23">
+        <v>1</v>
+      </c>
+      <c r="I31" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J31" s="23">
+        <v>3</v>
+      </c>
+      <c r="K31" s="29">
+        <v>43</v>
+      </c>
+      <c r="L31" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="18" customHeight="1">
+      <c r="A32" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="50"/>
+      <c r="C32" s="23">
+        <v>10</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="23">
+        <v>1</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="J32" s="23">
+        <v>3</v>
+      </c>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+    </row>
+    <row r="33" spans="1:12" ht="18" customHeight="1">
+      <c r="A33" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="50"/>
+      <c r="C33" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="F33" s="60" t="s">
+        <v>205</v>
+      </c>
+      <c r="G33" s="58">
+        <v>42636.741111111114</v>
+      </c>
+      <c r="H33" s="23">
+        <v>1</v>
+      </c>
+      <c r="I33" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J33" s="23">
+        <v>3</v>
+      </c>
+      <c r="K33" s="23">
+        <v>20</v>
+      </c>
+      <c r="L33" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="18" customHeight="1">
+      <c r="A34" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="50"/>
+      <c r="C34" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="F34" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="G34" s="58">
+        <v>42636.920185185183</v>
+      </c>
+      <c r="H34" s="23">
+        <v>1</v>
+      </c>
+      <c r="I34" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J34" s="23">
+        <v>3</v>
+      </c>
+      <c r="K34" s="23">
+        <v>23</v>
+      </c>
+      <c r="L34" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="18" customHeight="1">
+      <c r="A35" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="50"/>
+      <c r="C35" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="F35" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="G35" s="58">
+        <v>42638.483668981484</v>
+      </c>
+      <c r="H35" s="23">
+        <v>1</v>
+      </c>
+      <c r="I35" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J35" s="23">
+        <v>3</v>
+      </c>
+      <c r="K35" s="23">
+        <v>23</v>
+      </c>
+      <c r="L35" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="18" customHeight="1">
+      <c r="A36" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="50"/>
+      <c r="C36" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="F36" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="G36" s="58">
+        <v>42639.726990740739</v>
+      </c>
+      <c r="H36" s="23">
+        <v>1</v>
+      </c>
+      <c r="I36" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J36" s="23">
+        <v>3</v>
+      </c>
+      <c r="K36" s="23">
+        <v>23</v>
+      </c>
+      <c r="L36" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="18" customHeight="1">
+      <c r="A37" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="50"/>
+      <c r="C37" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="F37" s="60" t="s">
+        <v>217</v>
+      </c>
+      <c r="G37" s="58">
+        <v>42639.947337962964</v>
+      </c>
+      <c r="H37" s="23">
+        <v>1</v>
+      </c>
+      <c r="I37" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J37" s="23">
+        <v>3</v>
+      </c>
+      <c r="K37" s="23">
+        <v>23</v>
+      </c>
+      <c r="L37" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="18" customHeight="1">
+      <c r="A38" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="50"/>
+      <c r="C38" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="F38" s="65" t="s">
+        <v>220</v>
+      </c>
+      <c r="G38" s="58">
+        <v>42641.480763888889</v>
+      </c>
+      <c r="H38" s="23">
+        <v>1</v>
+      </c>
+      <c r="I38" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J38" s="23">
+        <v>3</v>
+      </c>
+      <c r="K38" s="23">
+        <v>23</v>
+      </c>
+      <c r="L38" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="18" customHeight="1">
+      <c r="A39" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="50"/>
+      <c r="C39" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="F39" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="G39" s="58">
+        <v>42641.736342592594</v>
+      </c>
+      <c r="H39" s="23">
+        <v>1</v>
+      </c>
+      <c r="I39" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J39" s="23">
+        <v>3</v>
+      </c>
+      <c r="K39" s="23">
+        <v>20</v>
+      </c>
+      <c r="L39" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="18" customHeight="1">
+      <c r="A40" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="50"/>
+      <c r="C40" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="F40" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="G40" s="58">
+        <v>42642.673564814817</v>
+      </c>
+      <c r="H40" s="23">
+        <v>1</v>
+      </c>
+      <c r="I40" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J40" s="23">
+        <v>3</v>
+      </c>
+      <c r="K40" s="23">
+        <v>20</v>
+      </c>
+      <c r="L40" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="18" customHeight="1">
+      <c r="A41" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" s="50"/>
+      <c r="C41" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="F41" s="61" t="s">
+        <v>229</v>
+      </c>
+      <c r="G41" s="62">
+        <v>42643.434027777781</v>
+      </c>
+      <c r="H41" s="23">
+        <v>1</v>
+      </c>
+      <c r="I41" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J41" s="29">
+        <v>3</v>
+      </c>
+      <c r="K41" s="29">
+        <v>40</v>
+      </c>
+      <c r="L41" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="18" customHeight="1">
+      <c r="A42" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="50"/>
+      <c r="C42" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D42" s="31"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="23">
+        <v>1</v>
+      </c>
+      <c r="I42" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+    </row>
+    <row r="43" spans="1:12" ht="18" customHeight="1">
+      <c r="A43" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="B43" s="50"/>
+      <c r="C43" s="23">
+        <v>69</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="F43" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="G43" s="58">
+        <v>42643.710972222223</v>
+      </c>
+      <c r="H43" s="23">
+        <v>1</v>
+      </c>
+      <c r="I43" s="23">
+        <v>69</v>
+      </c>
+      <c r="J43" s="23">
+        <v>3</v>
+      </c>
+      <c r="K43" s="23">
+        <v>70</v>
+      </c>
+      <c r="L43" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -943,10 +3082,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1308,7 +3447,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="17" spans="4:11" ht="14.25">
+    <row r="17" spans="1:12" ht="14.25">
       <c r="D17" s="14" t="s">
         <v>62</v>
       </c>
@@ -1322,7 +3461,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="18" spans="4:11" ht="14.25">
+    <row r="18" spans="1:12" ht="14.25">
       <c r="D18" s="14" t="s">
         <v>63</v>
       </c>
@@ -1342,7 +3481,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="19" spans="4:11" ht="14.25">
+    <row r="19" spans="1:12" ht="14.25">
       <c r="D19" s="14" t="s">
         <v>66</v>
       </c>
@@ -1359,7 +3498,1258 @@
         <v>9.9</v>
       </c>
     </row>
+    <row r="20" spans="1:12" s="21" customFormat="1">
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:12" ht="18" customHeight="1">
+      <c r="A21" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="26">
+        <v>42646.791666666664</v>
+      </c>
+      <c r="H21" s="23">
+        <v>1</v>
+      </c>
+      <c r="I21" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J21" s="23">
+        <v>3</v>
+      </c>
+      <c r="K21" s="23">
+        <v>23</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="18" customHeight="1">
+      <c r="A22" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="30">
+        <v>42651.840277777781</v>
+      </c>
+      <c r="H22" s="23">
+        <v>1</v>
+      </c>
+      <c r="I22" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J22" s="29">
+        <v>3</v>
+      </c>
+      <c r="K22" s="29">
+        <v>40</v>
+      </c>
+      <c r="L22" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="18" customHeight="1">
+      <c r="A23" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="23">
+        <v>1</v>
+      </c>
+      <c r="I23" s="23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+    </row>
+    <row r="24" spans="1:12" ht="18" customHeight="1">
+      <c r="A24" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="26">
+        <v>42652.456944444442</v>
+      </c>
+      <c r="H24" s="23">
+        <v>1</v>
+      </c>
+      <c r="I24" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J24" s="29">
+        <v>3</v>
+      </c>
+      <c r="K24" s="29">
+        <v>41</v>
+      </c>
+      <c r="L24" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="18" customHeight="1">
+      <c r="A25" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="26">
+        <v>42652.472916666666</v>
+      </c>
+      <c r="H25" s="23">
+        <v>1</v>
+      </c>
+      <c r="I25" s="23">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+    </row>
+    <row r="26" spans="1:12" ht="18" customHeight="1">
+      <c r="A26" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23">
+        <v>24.9</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="30">
+        <v>42653.767106481479</v>
+      </c>
+      <c r="H26" s="23">
+        <v>1</v>
+      </c>
+      <c r="I26" s="23">
+        <v>24.9</v>
+      </c>
+      <c r="J26" s="29">
+        <v>3</v>
+      </c>
+      <c r="K26" s="29">
+        <v>33</v>
+      </c>
+      <c r="L26" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="18" customHeight="1">
+      <c r="A27" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23">
+        <v>9.9</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="23">
+        <v>1</v>
+      </c>
+      <c r="I27" s="23">
+        <v>9.9</v>
+      </c>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+    </row>
+    <row r="28" spans="1:12" ht="18" customHeight="1">
+      <c r="A28" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23">
+        <v>24.9</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="30">
+        <v>42657.50990740741</v>
+      </c>
+      <c r="H28" s="23">
+        <v>1</v>
+      </c>
+      <c r="I28" s="23">
+        <v>24.9</v>
+      </c>
+      <c r="J28" s="29">
+        <v>3</v>
+      </c>
+      <c r="K28" s="29">
+        <v>38</v>
+      </c>
+      <c r="L28" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="18" customHeight="1">
+      <c r="A29" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23">
+        <v>9.9</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="32"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="23">
+        <v>1</v>
+      </c>
+      <c r="I29" s="23">
+        <v>9.9</v>
+      </c>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+    </row>
+    <row r="30" spans="1:12" ht="18" customHeight="1">
+      <c r="A30" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23">
+        <v>24.9</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="30">
+        <v>42657.667534722219</v>
+      </c>
+      <c r="H30" s="23">
+        <v>1</v>
+      </c>
+      <c r="I30" s="23">
+        <v>24.9</v>
+      </c>
+      <c r="J30" s="29">
+        <v>3</v>
+      </c>
+      <c r="K30" s="29">
+        <v>38</v>
+      </c>
+      <c r="L30" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="18" customHeight="1">
+      <c r="A31" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23">
+        <v>9.9</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="23">
+        <v>1</v>
+      </c>
+      <c r="I31" s="23">
+        <v>9.9</v>
+      </c>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+    </row>
+    <row r="32" spans="1:12" ht="18" customHeight="1">
+      <c r="A32" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="30">
+        <v>42657.745023148149</v>
+      </c>
+      <c r="H32" s="23">
+        <v>1</v>
+      </c>
+      <c r="I32" s="23">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J32" s="29">
+        <v>0</v>
+      </c>
+      <c r="K32" s="29">
+        <v>29</v>
+      </c>
+      <c r="L32" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="18" customHeight="1">
+      <c r="A33" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23">
+        <v>9.9</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="23">
+        <v>1</v>
+      </c>
+      <c r="I33" s="23">
+        <v>9.9</v>
+      </c>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+    </row>
+    <row r="34" spans="1:12" ht="18" customHeight="1">
+      <c r="A34" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23">
+        <v>24.9</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="30">
+        <v>42657.904027777775</v>
+      </c>
+      <c r="H34" s="23">
+        <v>1</v>
+      </c>
+      <c r="I34" s="23">
+        <v>24.9</v>
+      </c>
+      <c r="J34" s="29">
+        <v>0</v>
+      </c>
+      <c r="K34" s="29">
+        <v>44</v>
+      </c>
+      <c r="L34" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="18" customHeight="1">
+      <c r="A35" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="23">
+        <v>1</v>
+      </c>
+      <c r="I35" s="23">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+    </row>
+    <row r="36" spans="1:12" ht="18" customHeight="1">
+      <c r="A36" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23">
+        <v>24.9</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="30">
+        <v>42658.496817129628</v>
+      </c>
+      <c r="H36" s="23">
+        <v>1</v>
+      </c>
+      <c r="I36" s="23">
+        <v>24.9</v>
+      </c>
+      <c r="J36" s="29">
+        <v>0</v>
+      </c>
+      <c r="K36" s="29">
+        <v>35</v>
+      </c>
+      <c r="L36" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="18" customHeight="1">
+      <c r="A37" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23">
+        <v>9.9</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="23">
+        <v>1</v>
+      </c>
+      <c r="I37" s="23">
+        <v>9.9</v>
+      </c>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+    </row>
+    <row r="38" spans="1:12" ht="18" customHeight="1">
+      <c r="A38" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23">
+        <v>9.9</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="G38" s="30">
+        <v>42658.638483796298</v>
+      </c>
+      <c r="H38" s="23">
+        <v>1</v>
+      </c>
+      <c r="I38" s="23">
+        <v>9.9</v>
+      </c>
+      <c r="J38" s="29">
+        <v>0</v>
+      </c>
+      <c r="K38" s="29">
+        <v>35</v>
+      </c>
+      <c r="L38" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="18" customHeight="1">
+      <c r="A39" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23">
+        <v>24.9</v>
+      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="23">
+        <v>1</v>
+      </c>
+      <c r="I39" s="23">
+        <v>24.9</v>
+      </c>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+    </row>
+    <row r="40" spans="1:12" ht="18" customHeight="1">
+      <c r="A40" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23">
+        <v>9.9</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" s="30">
+        <v>42658.690185185187</v>
+      </c>
+      <c r="H40" s="23">
+        <v>1</v>
+      </c>
+      <c r="I40" s="23">
+        <v>9.9</v>
+      </c>
+      <c r="J40" s="29">
+        <v>0</v>
+      </c>
+      <c r="K40" s="29">
+        <v>35</v>
+      </c>
+      <c r="L40" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="18" customHeight="1">
+      <c r="A41" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23">
+        <v>24.9</v>
+      </c>
+      <c r="D41" s="31"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="23">
+        <v>1</v>
+      </c>
+      <c r="I41" s="23">
+        <v>24.9</v>
+      </c>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+    </row>
+    <row r="42" spans="1:12" ht="18" customHeight="1">
+      <c r="A42" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="G42" s="30">
+        <v>42659.56826388889</v>
+      </c>
+      <c r="H42" s="23">
+        <v>1</v>
+      </c>
+      <c r="I42" s="23">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J42" s="29">
+        <v>0</v>
+      </c>
+      <c r="K42" s="29">
+        <v>29</v>
+      </c>
+      <c r="L42" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="18" customHeight="1">
+      <c r="A43" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23">
+        <v>9.9</v>
+      </c>
+      <c r="D43" s="31"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="23">
+        <v>1</v>
+      </c>
+      <c r="I43" s="23">
+        <v>9.9</v>
+      </c>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+    </row>
+    <row r="44" spans="1:12" ht="18" customHeight="1">
+      <c r="A44" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23">
+        <v>24.9</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="G44" s="30">
+        <v>42660.014467592591</v>
+      </c>
+      <c r="H44" s="23">
+        <v>1</v>
+      </c>
+      <c r="I44" s="23">
+        <v>24.9</v>
+      </c>
+      <c r="J44" s="29">
+        <v>0</v>
+      </c>
+      <c r="K44" s="29">
+        <v>35</v>
+      </c>
+      <c r="L44" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="18" customHeight="1">
+      <c r="A45" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23">
+        <v>9.9</v>
+      </c>
+      <c r="D45" s="31"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="23">
+        <v>1</v>
+      </c>
+      <c r="I45" s="23">
+        <v>9.9</v>
+      </c>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+    </row>
+    <row r="46" spans="1:12" ht="18" customHeight="1">
+      <c r="A46" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="30">
+        <v>42660.695138888892</v>
+      </c>
+      <c r="H46" s="23">
+        <v>2</v>
+      </c>
+      <c r="I46" s="23">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="J46" s="29">
+        <v>0</v>
+      </c>
+      <c r="K46" s="29">
+        <v>76</v>
+      </c>
+      <c r="L46" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="18" customHeight="1">
+      <c r="A47" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23">
+        <v>35.9</v>
+      </c>
+      <c r="D47" s="31"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="23">
+        <v>1</v>
+      </c>
+      <c r="I47" s="23">
+        <v>35.9</v>
+      </c>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+    </row>
+    <row r="48" spans="1:12" ht="18" customHeight="1">
+      <c r="A48" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="G48" s="26">
+        <v>42660.765277777777</v>
+      </c>
+      <c r="H48" s="23">
+        <v>1</v>
+      </c>
+      <c r="I48" s="23">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J48" s="23">
+        <v>0</v>
+      </c>
+      <c r="K48" s="23">
+        <v>19</v>
+      </c>
+      <c r="L48" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="18" customHeight="1">
+      <c r="A49" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="G49" s="30">
+        <v>42662.72152777778</v>
+      </c>
+      <c r="H49" s="23">
+        <v>1</v>
+      </c>
+      <c r="I49" s="23">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J49" s="29">
+        <v>0</v>
+      </c>
+      <c r="K49" s="29">
+        <v>44</v>
+      </c>
+      <c r="L49" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="18" customHeight="1">
+      <c r="A50" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23">
+        <v>24.9</v>
+      </c>
+      <c r="D50" s="31"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="23">
+        <v>1</v>
+      </c>
+      <c r="I50" s="23">
+        <v>24.9</v>
+      </c>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
+    </row>
+    <row r="51" spans="1:12" ht="18" customHeight="1">
+      <c r="A51" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23">
+        <v>24.9</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F51" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51" s="30">
+        <v>42662.712500000001</v>
+      </c>
+      <c r="H51" s="23">
+        <v>1</v>
+      </c>
+      <c r="I51" s="23">
+        <v>24.9</v>
+      </c>
+      <c r="J51" s="29">
+        <v>0</v>
+      </c>
+      <c r="K51" s="29">
+        <v>35</v>
+      </c>
+      <c r="L51" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="18" customHeight="1">
+      <c r="A52" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23">
+        <v>9.9</v>
+      </c>
+      <c r="D52" s="31"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="23">
+        <v>1</v>
+      </c>
+      <c r="I52" s="23">
+        <v>9.9</v>
+      </c>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+    </row>
+    <row r="53" spans="1:12" ht="18" customHeight="1">
+      <c r="A53" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23">
+        <v>9.9</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F53" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G53" s="30">
+        <v>42663.715277777781</v>
+      </c>
+      <c r="H53" s="23">
+        <v>1</v>
+      </c>
+      <c r="I53" s="23">
+        <v>9.9</v>
+      </c>
+      <c r="J53" s="29">
+        <v>0</v>
+      </c>
+      <c r="K53" s="36">
+        <v>55</v>
+      </c>
+      <c r="L53" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="18" customHeight="1">
+      <c r="A54" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D54" s="43"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="23">
+        <v>1</v>
+      </c>
+      <c r="I54" s="23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J54" s="47"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="47"/>
+    </row>
+    <row r="55" spans="1:12" ht="18" customHeight="1">
+      <c r="A55" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23">
+        <v>24.9</v>
+      </c>
+      <c r="D55" s="31"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="23">
+        <v>1</v>
+      </c>
+      <c r="I55" s="23">
+        <v>24.9</v>
+      </c>
+      <c r="J55" s="33"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="33"/>
+    </row>
+    <row r="56" spans="1:12" ht="18" customHeight="1">
+      <c r="A56" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="50"/>
+      <c r="C56" s="49">
+        <v>24.9</v>
+      </c>
+      <c r="D56" s="51">
+        <v>40770999884</v>
+      </c>
+      <c r="E56" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="F56" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="G56" s="54">
+        <v>42664.636805555558</v>
+      </c>
+      <c r="H56" s="49">
+        <v>1</v>
+      </c>
+      <c r="I56" s="49">
+        <v>24.9</v>
+      </c>
+      <c r="J56" s="51">
+        <v>0</v>
+      </c>
+      <c r="K56" s="51">
+        <v>75</v>
+      </c>
+      <c r="L56" s="51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="18" customHeight="1">
+      <c r="A57" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="50"/>
+      <c r="C57" s="49">
+        <v>9.9</v>
+      </c>
+      <c r="D57" s="51"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="49">
+        <v>1</v>
+      </c>
+      <c r="I57" s="49">
+        <v>9.9</v>
+      </c>
+      <c r="J57" s="51"/>
+      <c r="K57" s="51"/>
+      <c r="L57" s="51"/>
+    </row>
+    <row r="58" spans="1:12" ht="18" customHeight="1">
+      <c r="A58" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="50"/>
+      <c r="C58" s="49">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D58" s="51"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="49">
+        <v>1</v>
+      </c>
+      <c r="I58" s="49">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J58" s="51"/>
+      <c r="K58" s="51"/>
+      <c r="L58" s="51"/>
+    </row>
+    <row r="59" spans="1:12" ht="18" customHeight="1">
+      <c r="A59" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="50"/>
+      <c r="C59" s="49">
+        <v>10</v>
+      </c>
+      <c r="D59" s="51"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="49">
+        <v>1</v>
+      </c>
+      <c r="I59" s="49">
+        <v>10</v>
+      </c>
+      <c r="J59" s="51"/>
+      <c r="K59" s="51"/>
+      <c r="L59" s="51"/>
+    </row>
   </sheetData>
+  <mergeCells count="116">
+    <mergeCell ref="L56:L59"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="J56:J59"/>
+    <mergeCell ref="K56:K59"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="J53:J55"/>
+    <mergeCell ref="K53:K55"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/刷单费用明细1.xlsx
+++ b/刷单费用明细1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="9月" sheetId="2" r:id="rId1"/>
@@ -1145,88 +1145,19 @@
     <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1243,19 +1174,88 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="22" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="22" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1564,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K43" sqref="K2:K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1786,26 +1786,26 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="21" customFormat="1">
-      <c r="E7" s="55"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1">
       <c r="A8" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="23">
         <v>16.899999999999999</v>
       </c>
       <c r="D8" s="24">
         <v>23213097443</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="E8" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="G8" s="58">
+      <c r="G8" s="35">
         <v>42625.705555555556</v>
       </c>
       <c r="H8" s="23">
@@ -1828,7 +1828,7 @@
       <c r="A9" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="23">
         <v>16.899999999999999</v>
       </c>
@@ -1838,10 +1838,10 @@
       <c r="E9" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="G9" s="58">
+      <c r="G9" s="35">
         <v>42625.56527777778</v>
       </c>
       <c r="H9" s="23">
@@ -1864,7 +1864,7 @@
       <c r="A10" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="23">
         <v>16.899999999999999</v>
       </c>
@@ -1874,10 +1874,10 @@
       <c r="E10" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="G10" s="58">
+      <c r="G10" s="35">
         <v>42625.540972222225</v>
       </c>
       <c r="H10" s="23">
@@ -1900,20 +1900,20 @@
       <c r="A11" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="50"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="23">
         <v>16.899999999999999</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="G11" s="58">
+      <c r="G11" s="35">
         <v>42626.397222222222</v>
       </c>
       <c r="H11" s="23">
@@ -1936,7 +1936,7 @@
       <c r="A12" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="50"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="23">
         <v>16.899999999999999</v>
       </c>
@@ -1946,10 +1946,10 @@
       <c r="E12" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G12" s="58">
+      <c r="G12" s="35">
         <v>42626.476388888892</v>
       </c>
       <c r="H12" s="23">
@@ -1972,7 +1972,7 @@
       <c r="A13" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="50"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="23">
         <v>16.899999999999999</v>
       </c>
@@ -1982,10 +1982,10 @@
       <c r="E13" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="G13" s="58">
+      <c r="G13" s="35">
         <v>42626.644444444442</v>
       </c>
       <c r="H13" s="23">
@@ -2008,7 +2008,7 @@
       <c r="A14" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="50"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="23">
         <v>16.899999999999999</v>
       </c>
@@ -2018,10 +2018,10 @@
       <c r="E14" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="G14" s="58">
+      <c r="G14" s="35">
         <v>42626.71875</v>
       </c>
       <c r="H14" s="23">
@@ -2044,7 +2044,7 @@
       <c r="A15" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="50"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="23">
         <v>19.899999999999999</v>
       </c>
@@ -2054,10 +2054,10 @@
       <c r="E15" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="58">
+      <c r="G15" s="35">
         <v>42631.472222222219</v>
       </c>
       <c r="H15" s="23">
@@ -2080,7 +2080,7 @@
       <c r="A16" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="50"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="23">
         <v>19.899999999999999</v>
       </c>
@@ -2090,10 +2090,10 @@
       <c r="E16" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="59" t="s">
+      <c r="F16" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="G16" s="58">
+      <c r="G16" s="35">
         <v>42631.46875</v>
       </c>
       <c r="H16" s="23">
@@ -2116,7 +2116,7 @@
       <c r="A17" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="23">
         <v>19.899999999999999</v>
       </c>
@@ -2126,10 +2126,10 @@
       <c r="E17" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="G17" s="58">
+      <c r="G17" s="35">
         <v>42631.736111111109</v>
       </c>
       <c r="H17" s="23">
@@ -2152,7 +2152,7 @@
       <c r="A18" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="50"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="23">
         <v>16.899999999999999</v>
       </c>
@@ -2162,10 +2162,10 @@
       <c r="E18" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="F18" s="59" t="s">
+      <c r="F18" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G18" s="58">
+      <c r="G18" s="35">
         <v>42631.805555555555</v>
       </c>
       <c r="H18" s="23">
@@ -2188,7 +2188,7 @@
       <c r="A19" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="B19" s="50"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="23">
         <v>19.899999999999999</v>
       </c>
@@ -2198,10 +2198,10 @@
       <c r="E19" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="F19" s="59" t="s">
+      <c r="F19" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="58">
+      <c r="G19" s="35">
         <v>42632.611111111109</v>
       </c>
       <c r="H19" s="23">
@@ -2224,7 +2224,7 @@
       <c r="A20" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B20" s="50"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="23">
         <v>16.899999999999999</v>
       </c>
@@ -2234,10 +2234,10 @@
       <c r="E20" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="G20" s="58">
+      <c r="G20" s="35">
         <v>42632.761111111111</v>
       </c>
       <c r="H20" s="23">
@@ -2260,7 +2260,7 @@
       <c r="A21" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B21" s="50"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="23">
         <v>16.899999999999999</v>
       </c>
@@ -2270,10 +2270,10 @@
       <c r="E21" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="G21" s="58">
+      <c r="G21" s="35">
         <v>42633.538888888892</v>
       </c>
       <c r="H21" s="23">
@@ -2296,7 +2296,7 @@
       <c r="A22" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B22" s="50"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="23">
         <v>16.899999999999999</v>
       </c>
@@ -2306,10 +2306,10 @@
       <c r="E22" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="F22" s="59" t="s">
+      <c r="F22" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="G22" s="58">
+      <c r="G22" s="35">
         <v>42634.519444444442</v>
       </c>
       <c r="H22" s="23">
@@ -2332,7 +2332,7 @@
       <c r="A23" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="50"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="23">
         <v>16.899999999999999</v>
       </c>
@@ -2342,10 +2342,10 @@
       <c r="E23" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="F23" s="59" t="s">
+      <c r="F23" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="G23" s="58">
+      <c r="G23" s="35">
         <v>42634.701388888891</v>
       </c>
       <c r="H23" s="23">
@@ -2368,7 +2368,7 @@
       <c r="A24" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="50"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="23">
         <v>16.899999999999999</v>
       </c>
@@ -2378,10 +2378,10 @@
       <c r="E24" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="F24" s="60" t="s">
+      <c r="F24" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="G24" s="58">
+      <c r="G24" s="35">
         <v>42634.828472222223</v>
       </c>
       <c r="H24" s="23">
@@ -2404,7 +2404,7 @@
       <c r="A25" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="50"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="23">
         <v>16.899999999999999</v>
       </c>
@@ -2414,10 +2414,10 @@
       <c r="E25" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="F25" s="60" t="s">
+      <c r="F25" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="G25" s="58">
+      <c r="G25" s="35">
         <v>42635.384027777778</v>
       </c>
       <c r="H25" s="23">
@@ -2440,7 +2440,7 @@
       <c r="A26" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B26" s="50"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="23">
         <v>16.899999999999999</v>
       </c>
@@ -2450,10 +2450,10 @@
       <c r="E26" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="F26" s="60" t="s">
+      <c r="F26" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="G26" s="58">
+      <c r="G26" s="35">
         <v>42635.646458333336</v>
       </c>
       <c r="H26" s="23">
@@ -2476,7 +2476,7 @@
       <c r="A27" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B27" s="50"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="23">
         <v>16.899999999999999</v>
       </c>
@@ -2486,10 +2486,10 @@
       <c r="E27" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="F27" s="59" t="s">
+      <c r="F27" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="G27" s="58">
+      <c r="G27" s="35">
         <v>42635.694027777776</v>
       </c>
       <c r="H27" s="23">
@@ -2512,7 +2512,7 @@
       <c r="A28" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="50"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="23">
         <v>19.899999999999999</v>
       </c>
@@ -2522,10 +2522,10 @@
       <c r="E28" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="F28" s="59" t="s">
+      <c r="F28" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="G28" s="58">
+      <c r="G28" s="35">
         <v>42635.837870370371</v>
       </c>
       <c r="H28" s="23">
@@ -2548,7 +2548,7 @@
       <c r="A29" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B29" s="50"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="23">
         <v>19.899999999999999</v>
       </c>
@@ -2558,10 +2558,10 @@
       <c r="E29" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="F29" s="59" t="s">
+      <c r="F29" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="G29" s="58">
+      <c r="G29" s="35">
         <v>42635.936377314814</v>
       </c>
       <c r="H29" s="23">
@@ -2584,7 +2584,7 @@
       <c r="A30" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B30" s="50"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="23">
         <v>16.899999999999999</v>
       </c>
@@ -2594,10 +2594,10 @@
       <c r="E30" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="F30" s="60" t="s">
+      <c r="F30" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="G30" s="58">
+      <c r="G30" s="35">
         <v>42636.54791666667</v>
       </c>
       <c r="H30" s="23">
@@ -2620,20 +2620,20 @@
       <c r="A31" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B31" s="50"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="23">
         <v>19.899999999999999</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="F31" s="61" t="s">
+      <c r="F31" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="G31" s="62">
+      <c r="G31" s="47">
         <v>42636.664583333331</v>
       </c>
       <c r="H31" s="23">
@@ -2645,10 +2645,10 @@
       <c r="J31" s="23">
         <v>3</v>
       </c>
-      <c r="K31" s="29">
+      <c r="K31" s="39">
         <v>43</v>
       </c>
-      <c r="L31" s="29" t="s">
+      <c r="L31" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2656,14 +2656,14 @@
       <c r="A32" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="50"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="23">
         <v>10</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="64"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="48"/>
       <c r="H32" s="23">
         <v>1</v>
       </c>
@@ -2673,14 +2673,14 @@
       <c r="J32" s="23">
         <v>3</v>
       </c>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
     </row>
     <row r="33" spans="1:12" ht="18" customHeight="1">
       <c r="A33" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="50"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="23">
         <v>16.899999999999999</v>
       </c>
@@ -2690,10 +2690,10 @@
       <c r="E33" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="F33" s="60" t="s">
+      <c r="F33" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="G33" s="58">
+      <c r="G33" s="35">
         <v>42636.741111111114</v>
       </c>
       <c r="H33" s="23">
@@ -2716,7 +2716,7 @@
       <c r="A34" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="50"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="23">
         <v>19.899999999999999</v>
       </c>
@@ -2726,10 +2726,10 @@
       <c r="E34" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="F34" s="60" t="s">
+      <c r="F34" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="G34" s="58">
+      <c r="G34" s="35">
         <v>42636.920185185183</v>
       </c>
       <c r="H34" s="23">
@@ -2752,7 +2752,7 @@
       <c r="A35" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B35" s="50"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="23">
         <v>19.899999999999999</v>
       </c>
@@ -2762,10 +2762,10 @@
       <c r="E35" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="F35" s="60" t="s">
+      <c r="F35" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="G35" s="58">
+      <c r="G35" s="35">
         <v>42638.483668981484</v>
       </c>
       <c r="H35" s="23">
@@ -2788,7 +2788,7 @@
       <c r="A36" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B36" s="50"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="23">
         <v>19.899999999999999</v>
       </c>
@@ -2798,10 +2798,10 @@
       <c r="E36" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="F36" s="60" t="s">
+      <c r="F36" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="G36" s="58">
+      <c r="G36" s="35">
         <v>42639.726990740739</v>
       </c>
       <c r="H36" s="23">
@@ -2824,7 +2824,7 @@
       <c r="A37" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="50"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="23">
         <v>19.899999999999999</v>
       </c>
@@ -2834,10 +2834,10 @@
       <c r="E37" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="F37" s="60" t="s">
+      <c r="F37" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="G37" s="58">
+      <c r="G37" s="35">
         <v>42639.947337962964</v>
       </c>
       <c r="H37" s="23">
@@ -2860,7 +2860,7 @@
       <c r="A38" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B38" s="50"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="23">
         <v>19.899999999999999</v>
       </c>
@@ -2870,10 +2870,10 @@
       <c r="E38" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="F38" s="65" t="s">
+      <c r="F38" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="G38" s="58">
+      <c r="G38" s="35">
         <v>42641.480763888889</v>
       </c>
       <c r="H38" s="23">
@@ -2896,7 +2896,7 @@
       <c r="A39" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B39" s="50"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="23">
         <v>16.899999999999999</v>
       </c>
@@ -2906,10 +2906,10 @@
       <c r="E39" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="F39" s="60" t="s">
+      <c r="F39" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="G39" s="58">
+      <c r="G39" s="35">
         <v>42641.736342592594</v>
       </c>
       <c r="H39" s="23">
@@ -2932,7 +2932,7 @@
       <c r="A40" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B40" s="50"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="23">
         <v>16.899999999999999</v>
       </c>
@@ -2942,10 +2942,10 @@
       <c r="E40" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="F40" s="60" t="s">
+      <c r="F40" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="G40" s="58">
+      <c r="G40" s="35">
         <v>42642.673564814817</v>
       </c>
       <c r="H40" s="23">
@@ -2968,20 +2968,20 @@
       <c r="A41" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B41" s="50"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="23">
         <v>16.899999999999999</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="E41" s="28" t="s">
+      <c r="E41" s="43" t="s">
         <v>228</v>
       </c>
-      <c r="F41" s="61" t="s">
+      <c r="F41" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="G41" s="62">
+      <c r="G41" s="47">
         <v>42643.434027777781</v>
       </c>
       <c r="H41" s="23">
@@ -2990,13 +2990,13 @@
       <c r="I41" s="23">
         <v>16.899999999999999</v>
       </c>
-      <c r="J41" s="29">
-        <v>3</v>
-      </c>
-      <c r="K41" s="29">
+      <c r="J41" s="39">
+        <v>3</v>
+      </c>
+      <c r="K41" s="39">
         <v>40</v>
       </c>
-      <c r="L41" s="29" t="s">
+      <c r="L41" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3004,29 +3004,29 @@
       <c r="A42" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="50"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="23">
         <v>19.899999999999999</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="64"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="48"/>
       <c r="H42" s="23">
         <v>1</v>
       </c>
       <c r="I42" s="23">
         <v>19.899999999999999</v>
       </c>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
     </row>
     <row r="43" spans="1:12" ht="18" customHeight="1">
       <c r="A43" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="B43" s="50"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="23">
         <v>69</v>
       </c>
@@ -3036,10 +3036,10 @@
       <c r="E43" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="F43" s="60" t="s">
+      <c r="F43" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="G43" s="58">
+      <c r="G43" s="35">
         <v>42643.710972222223</v>
       </c>
       <c r="H43" s="23">
@@ -3060,6 +3060,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="K31:K32"/>
     <mergeCell ref="L41:L42"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="E41:E42"/>
@@ -3067,12 +3073,6 @@
     <mergeCell ref="G41:G42"/>
     <mergeCell ref="J41:J42"/>
     <mergeCell ref="K41:K42"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3084,8 +3084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53:K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3545,16 +3545,16 @@
       <c r="C22" s="23">
         <v>19.899999999999999</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="59">
         <v>42651.840277777781</v>
       </c>
       <c r="H22" s="23">
@@ -3563,13 +3563,13 @@
       <c r="I22" s="23">
         <v>19.899999999999999</v>
       </c>
-      <c r="J22" s="29">
-        <v>3</v>
-      </c>
-      <c r="K22" s="29">
+      <c r="J22" s="39">
+        <v>3</v>
+      </c>
+      <c r="K22" s="39">
         <v>40</v>
       </c>
-      <c r="L22" s="29" t="s">
+      <c r="L22" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3581,19 +3581,19 @@
       <c r="C23" s="23">
         <v>16.899999999999999</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
       <c r="H23" s="23">
         <v>1</v>
       </c>
       <c r="I23" s="23">
         <v>16.899999999999999</v>
       </c>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
     </row>
     <row r="24" spans="1:12" ht="18" customHeight="1">
       <c r="A24" s="23" t="s">
@@ -3606,10 +3606,10 @@
       <c r="D24" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="39" t="s">
         <v>78</v>
       </c>
       <c r="G24" s="26">
@@ -3621,13 +3621,13 @@
       <c r="I24" s="23">
         <v>19.899999999999999</v>
       </c>
-      <c r="J24" s="29">
-        <v>3</v>
-      </c>
-      <c r="K24" s="29">
+      <c r="J24" s="39">
+        <v>3</v>
+      </c>
+      <c r="K24" s="39">
         <v>41</v>
       </c>
-      <c r="L24" s="29" t="s">
+      <c r="L24" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3642,8 +3642,8 @@
       <c r="D25" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="33"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="40"/>
       <c r="G25" s="26">
         <v>42652.472916666666</v>
       </c>
@@ -3653,9 +3653,9 @@
       <c r="I25" s="23">
         <v>17.899999999999999</v>
       </c>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1">
       <c r="A26" s="23" t="s">
@@ -3665,16 +3665,16 @@
       <c r="C26" s="23">
         <v>24.9</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="59">
         <v>42653.767106481479</v>
       </c>
       <c r="H26" s="23">
@@ -3683,13 +3683,13 @@
       <c r="I26" s="23">
         <v>24.9</v>
       </c>
-      <c r="J26" s="29">
-        <v>3</v>
-      </c>
-      <c r="K26" s="29">
+      <c r="J26" s="39">
+        <v>3</v>
+      </c>
+      <c r="K26" s="39">
         <v>33</v>
       </c>
-      <c r="L26" s="29" t="s">
+      <c r="L26" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3701,19 +3701,19 @@
       <c r="C27" s="23">
         <v>9.9</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
       <c r="H27" s="23">
         <v>1</v>
       </c>
       <c r="I27" s="23">
         <v>9.9</v>
       </c>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1">
       <c r="A28" s="23" t="s">
@@ -3723,16 +3723,16 @@
       <c r="C28" s="23">
         <v>24.9</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="36" t="s">
+      <c r="F28" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="59">
         <v>42657.50990740741</v>
       </c>
       <c r="H28" s="23">
@@ -3741,13 +3741,13 @@
       <c r="I28" s="23">
         <v>24.9</v>
       </c>
-      <c r="J28" s="29">
-        <v>3</v>
-      </c>
-      <c r="K28" s="29">
+      <c r="J28" s="39">
+        <v>3</v>
+      </c>
+      <c r="K28" s="39">
         <v>38</v>
       </c>
-      <c r="L28" s="29" t="s">
+      <c r="L28" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3759,21 +3759,21 @@
       <c r="C29" s="23">
         <v>9.9</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="61"/>
       <c r="H29" s="23">
         <v>1</v>
       </c>
       <c r="I29" s="23">
         <v>9.9</v>
       </c>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
     </row>
     <row r="30" spans="1:12" ht="18" customHeight="1">
       <c r="A30" s="23" t="s">
@@ -3783,16 +3783,16 @@
       <c r="C30" s="23">
         <v>24.9</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G30" s="59">
         <v>42657.667534722219</v>
       </c>
       <c r="H30" s="23">
@@ -3801,13 +3801,13 @@
       <c r="I30" s="23">
         <v>24.9</v>
       </c>
-      <c r="J30" s="29">
-        <v>3</v>
-      </c>
-      <c r="K30" s="29">
+      <c r="J30" s="39">
+        <v>3</v>
+      </c>
+      <c r="K30" s="39">
         <v>38</v>
       </c>
-      <c r="L30" s="29" t="s">
+      <c r="L30" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3819,19 +3819,19 @@
       <c r="C31" s="23">
         <v>9.9</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="39"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="61"/>
       <c r="H31" s="23">
         <v>1</v>
       </c>
       <c r="I31" s="23">
         <v>9.9</v>
       </c>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
     </row>
     <row r="32" spans="1:12" ht="18" customHeight="1">
       <c r="A32" s="23" t="s">
@@ -3841,16 +3841,16 @@
       <c r="C32" s="23">
         <v>18.899999999999999</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="F32" s="36" t="s">
+      <c r="F32" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="G32" s="30">
+      <c r="G32" s="59">
         <v>42657.745023148149</v>
       </c>
       <c r="H32" s="23">
@@ -3859,13 +3859,13 @@
       <c r="I32" s="23">
         <v>18.899999999999999</v>
       </c>
-      <c r="J32" s="29">
+      <c r="J32" s="39">
         <v>0</v>
       </c>
-      <c r="K32" s="29">
+      <c r="K32" s="39">
         <v>29</v>
       </c>
-      <c r="L32" s="29" t="s">
+      <c r="L32" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3877,19 +3877,19 @@
       <c r="C33" s="23">
         <v>9.9</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="39"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="61"/>
       <c r="H33" s="23">
         <v>1</v>
       </c>
       <c r="I33" s="23">
         <v>9.9</v>
       </c>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
     </row>
     <row r="34" spans="1:12" ht="18" customHeight="1">
       <c r="A34" s="23" t="s">
@@ -3899,16 +3899,16 @@
       <c r="C34" s="23">
         <v>24.9</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="F34" s="36" t="s">
+      <c r="F34" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="G34" s="30">
+      <c r="G34" s="59">
         <v>42657.904027777775</v>
       </c>
       <c r="H34" s="23">
@@ -3917,13 +3917,13 @@
       <c r="I34" s="23">
         <v>24.9</v>
       </c>
-      <c r="J34" s="29">
+      <c r="J34" s="39">
         <v>0</v>
       </c>
-      <c r="K34" s="29">
+      <c r="K34" s="39">
         <v>44</v>
       </c>
-      <c r="L34" s="29" t="s">
+      <c r="L34" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3935,19 +3935,19 @@
       <c r="C35" s="23">
         <v>18.899999999999999</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="39"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="61"/>
       <c r="H35" s="23">
         <v>1</v>
       </c>
       <c r="I35" s="23">
         <v>18.899999999999999</v>
       </c>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
     </row>
     <row r="36" spans="1:12" ht="18" customHeight="1">
       <c r="A36" s="23" t="s">
@@ -3957,16 +3957,16 @@
       <c r="C36" s="23">
         <v>24.9</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="36" t="s">
+      <c r="F36" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="G36" s="30">
+      <c r="G36" s="59">
         <v>42658.496817129628</v>
       </c>
       <c r="H36" s="23">
@@ -3975,13 +3975,13 @@
       <c r="I36" s="23">
         <v>24.9</v>
       </c>
-      <c r="J36" s="29">
+      <c r="J36" s="39">
         <v>0</v>
       </c>
-      <c r="K36" s="29">
+      <c r="K36" s="39">
         <v>35</v>
       </c>
-      <c r="L36" s="29" t="s">
+      <c r="L36" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3993,19 +3993,19 @@
       <c r="C37" s="23">
         <v>9.9</v>
       </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="39"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="61"/>
       <c r="H37" s="23">
         <v>1</v>
       </c>
       <c r="I37" s="23">
         <v>9.9</v>
       </c>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
     </row>
     <row r="38" spans="1:12" ht="18" customHeight="1">
       <c r="A38" s="23" t="s">
@@ -4015,16 +4015,16 @@
       <c r="C38" s="23">
         <v>9.9</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="F38" s="36" t="s">
+      <c r="F38" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="G38" s="30">
+      <c r="G38" s="59">
         <v>42658.638483796298</v>
       </c>
       <c r="H38" s="23">
@@ -4033,13 +4033,13 @@
       <c r="I38" s="23">
         <v>9.9</v>
       </c>
-      <c r="J38" s="29">
+      <c r="J38" s="39">
         <v>0</v>
       </c>
-      <c r="K38" s="29">
+      <c r="K38" s="39">
         <v>35</v>
       </c>
-      <c r="L38" s="29" t="s">
+      <c r="L38" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4051,19 +4051,19 @@
       <c r="C39" s="23">
         <v>24.9</v>
       </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="39"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="61"/>
       <c r="H39" s="23">
         <v>1</v>
       </c>
       <c r="I39" s="23">
         <v>24.9</v>
       </c>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
     </row>
     <row r="40" spans="1:12" ht="18" customHeight="1">
       <c r="A40" s="23" t="s">
@@ -4073,16 +4073,16 @@
       <c r="C40" s="23">
         <v>9.9</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="28" t="s">
+      <c r="E40" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="F40" s="36" t="s">
+      <c r="F40" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="G40" s="30">
+      <c r="G40" s="59">
         <v>42658.690185185187</v>
       </c>
       <c r="H40" s="23">
@@ -4091,13 +4091,13 @@
       <c r="I40" s="23">
         <v>9.9</v>
       </c>
-      <c r="J40" s="29">
+      <c r="J40" s="39">
         <v>0</v>
       </c>
-      <c r="K40" s="29">
+      <c r="K40" s="39">
         <v>35</v>
       </c>
-      <c r="L40" s="29" t="s">
+      <c r="L40" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4109,19 +4109,19 @@
       <c r="C41" s="23">
         <v>24.9</v>
       </c>
-      <c r="D41" s="31"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="39"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="61"/>
       <c r="H41" s="23">
         <v>1</v>
       </c>
       <c r="I41" s="23">
         <v>24.9</v>
       </c>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
     </row>
     <row r="42" spans="1:12" ht="18" customHeight="1">
       <c r="A42" s="23" t="s">
@@ -4131,16 +4131,16 @@
       <c r="C42" s="23">
         <v>18.899999999999999</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="28" t="s">
+      <c r="E42" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="F42" s="36" t="s">
+      <c r="F42" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="G42" s="30">
+      <c r="G42" s="59">
         <v>42659.56826388889</v>
       </c>
       <c r="H42" s="23">
@@ -4149,13 +4149,13 @@
       <c r="I42" s="23">
         <v>18.899999999999999</v>
       </c>
-      <c r="J42" s="29">
+      <c r="J42" s="39">
         <v>0</v>
       </c>
-      <c r="K42" s="29">
+      <c r="K42" s="39">
         <v>29</v>
       </c>
-      <c r="L42" s="29" t="s">
+      <c r="L42" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4167,19 +4167,19 @@
       <c r="C43" s="23">
         <v>9.9</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="39"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="61"/>
       <c r="H43" s="23">
         <v>1</v>
       </c>
       <c r="I43" s="23">
         <v>9.9</v>
       </c>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
     </row>
     <row r="44" spans="1:12" ht="18" customHeight="1">
       <c r="A44" s="23" t="s">
@@ -4189,16 +4189,16 @@
       <c r="C44" s="23">
         <v>24.9</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="E44" s="28" t="s">
+      <c r="E44" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="F44" s="36" t="s">
+      <c r="F44" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="G44" s="30">
+      <c r="G44" s="59">
         <v>42660.014467592591</v>
       </c>
       <c r="H44" s="23">
@@ -4207,13 +4207,13 @@
       <c r="I44" s="23">
         <v>24.9</v>
       </c>
-      <c r="J44" s="29">
+      <c r="J44" s="39">
         <v>0</v>
       </c>
-      <c r="K44" s="29">
+      <c r="K44" s="39">
         <v>35</v>
       </c>
-      <c r="L44" s="29" t="s">
+      <c r="L44" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4225,19 +4225,19 @@
       <c r="C45" s="23">
         <v>9.9</v>
       </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="39"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="61"/>
       <c r="H45" s="23">
         <v>1</v>
       </c>
       <c r="I45" s="23">
         <v>9.9</v>
       </c>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
     </row>
     <row r="46" spans="1:12" ht="18" customHeight="1">
       <c r="A46" s="23" t="s">
@@ -4247,16 +4247,16 @@
       <c r="C46" s="23">
         <v>39.799999999999997</v>
       </c>
-      <c r="D46" s="27" t="s">
+      <c r="D46" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="E46" s="28" t="s">
+      <c r="E46" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="F46" s="36" t="s">
+      <c r="F46" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="G46" s="30">
+      <c r="G46" s="59">
         <v>42660.695138888892</v>
       </c>
       <c r="H46" s="23">
@@ -4265,13 +4265,13 @@
       <c r="I46" s="23">
         <v>39.799999999999997</v>
       </c>
-      <c r="J46" s="29">
+      <c r="J46" s="39">
         <v>0</v>
       </c>
-      <c r="K46" s="29">
+      <c r="K46" s="39">
         <v>76</v>
       </c>
-      <c r="L46" s="29" t="s">
+      <c r="L46" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4283,19 +4283,19 @@
       <c r="C47" s="23">
         <v>35.9</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="39"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="61"/>
       <c r="H47" s="23">
         <v>1</v>
       </c>
       <c r="I47" s="23">
         <v>35.9</v>
       </c>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
     </row>
     <row r="48" spans="1:12" ht="18" customHeight="1">
       <c r="A48" s="23" t="s">
@@ -4311,7 +4311,7 @@
       <c r="E48" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="F48" s="40" t="s">
+      <c r="F48" s="29" t="s">
         <v>116</v>
       </c>
       <c r="G48" s="26">
@@ -4341,16 +4341,16 @@
       <c r="C49" s="23">
         <v>18.899999999999999</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="D49" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="E49" s="28" t="s">
+      <c r="E49" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="F49" s="36" t="s">
+      <c r="F49" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="G49" s="30">
+      <c r="G49" s="59">
         <v>42662.72152777778</v>
       </c>
       <c r="H49" s="23">
@@ -4359,13 +4359,13 @@
       <c r="I49" s="23">
         <v>18.899999999999999</v>
       </c>
-      <c r="J49" s="29">
+      <c r="J49" s="39">
         <v>0</v>
       </c>
-      <c r="K49" s="29">
+      <c r="K49" s="39">
         <v>44</v>
       </c>
-      <c r="L49" s="29" t="s">
+      <c r="L49" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4377,19 +4377,19 @@
       <c r="C50" s="23">
         <v>24.9</v>
       </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="39"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="61"/>
       <c r="H50" s="23">
         <v>1</v>
       </c>
       <c r="I50" s="23">
         <v>24.9</v>
       </c>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
     </row>
     <row r="51" spans="1:12" ht="18" customHeight="1">
       <c r="A51" s="23" t="s">
@@ -4399,16 +4399,16 @@
       <c r="C51" s="23">
         <v>24.9</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="D51" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="E51" s="28" t="s">
+      <c r="E51" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="F51" s="41" t="s">
+      <c r="F51" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="G51" s="30">
+      <c r="G51" s="59">
         <v>42662.712500000001</v>
       </c>
       <c r="H51" s="23">
@@ -4417,13 +4417,13 @@
       <c r="I51" s="23">
         <v>24.9</v>
       </c>
-      <c r="J51" s="29">
+      <c r="J51" s="39">
         <v>0</v>
       </c>
-      <c r="K51" s="29">
+      <c r="K51" s="39">
         <v>35</v>
       </c>
-      <c r="L51" s="29" t="s">
+      <c r="L51" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4435,19 +4435,19 @@
       <c r="C52" s="23">
         <v>9.9</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="39"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="61"/>
       <c r="H52" s="23">
         <v>1</v>
       </c>
       <c r="I52" s="23">
         <v>9.9</v>
       </c>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
     </row>
     <row r="53" spans="1:12" ht="18" customHeight="1">
       <c r="A53" s="23" t="s">
@@ -4457,16 +4457,16 @@
       <c r="C53" s="23">
         <v>9.9</v>
       </c>
-      <c r="D53" s="27" t="s">
+      <c r="D53" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="F53" s="41" t="s">
+      <c r="F53" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="G53" s="30">
+      <c r="G53" s="59">
         <v>42663.715277777781</v>
       </c>
       <c r="H53" s="23">
@@ -4475,13 +4475,13 @@
       <c r="I53" s="23">
         <v>9.9</v>
       </c>
-      <c r="J53" s="29">
+      <c r="J53" s="39">
         <v>0</v>
       </c>
-      <c r="K53" s="36">
+      <c r="K53" s="63">
         <v>55</v>
       </c>
-      <c r="L53" s="29" t="s">
+      <c r="L53" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4493,19 +4493,19 @@
       <c r="C54" s="23">
         <v>19.899999999999999</v>
       </c>
-      <c r="D54" s="43"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="46"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="60"/>
       <c r="H54" s="23">
         <v>1</v>
       </c>
       <c r="I54" s="23">
         <v>19.899999999999999</v>
       </c>
-      <c r="J54" s="47"/>
-      <c r="K54" s="48"/>
-      <c r="L54" s="47"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="64"/>
+      <c r="L54" s="62"/>
     </row>
     <row r="55" spans="1:12" ht="18" customHeight="1">
       <c r="A55" s="23" t="s">
@@ -4515,124 +4515,219 @@
       <c r="C55" s="23">
         <v>24.9</v>
       </c>
-      <c r="D55" s="31"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="39"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="61"/>
       <c r="H55" s="23">
         <v>1</v>
       </c>
       <c r="I55" s="23">
         <v>24.9</v>
       </c>
-      <c r="J55" s="33"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="33"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="65"/>
+      <c r="L55" s="40"/>
     </row>
     <row r="56" spans="1:12" ht="18" customHeight="1">
-      <c r="A56" s="49" t="s">
+      <c r="A56" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="50"/>
-      <c r="C56" s="49">
+      <c r="B56" s="31"/>
+      <c r="C56" s="30">
         <v>24.9</v>
       </c>
-      <c r="D56" s="51">
+      <c r="D56" s="50">
         <v>40770999884</v>
       </c>
-      <c r="E56" s="52" t="s">
+      <c r="E56" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="F56" s="53" t="s">
+      <c r="F56" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="G56" s="54">
+      <c r="G56" s="53">
         <v>42664.636805555558</v>
       </c>
-      <c r="H56" s="49">
-        <v>1</v>
-      </c>
-      <c r="I56" s="49">
+      <c r="H56" s="30">
+        <v>1</v>
+      </c>
+      <c r="I56" s="30">
         <v>24.9</v>
       </c>
-      <c r="J56" s="51">
+      <c r="J56" s="50">
         <v>0</v>
       </c>
-      <c r="K56" s="51">
+      <c r="K56" s="50">
         <v>75</v>
       </c>
-      <c r="L56" s="51" t="s">
+      <c r="L56" s="50" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="18" customHeight="1">
-      <c r="A57" s="49" t="s">
+      <c r="A57" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B57" s="50"/>
-      <c r="C57" s="49">
+      <c r="B57" s="31"/>
+      <c r="C57" s="30">
         <v>9.9</v>
       </c>
-      <c r="D57" s="51"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="49">
-        <v>1</v>
-      </c>
-      <c r="I57" s="49">
+      <c r="D57" s="50"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="30">
+        <v>1</v>
+      </c>
+      <c r="I57" s="30">
         <v>9.9</v>
       </c>
-      <c r="J57" s="51"/>
-      <c r="K57" s="51"/>
-      <c r="L57" s="51"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="50"/>
     </row>
     <row r="58" spans="1:12" ht="18" customHeight="1">
-      <c r="A58" s="49" t="s">
+      <c r="A58" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="B58" s="50"/>
-      <c r="C58" s="49">
+      <c r="B58" s="31"/>
+      <c r="C58" s="30">
         <v>19.899999999999999</v>
       </c>
-      <c r="D58" s="51"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="49">
-        <v>1</v>
-      </c>
-      <c r="I58" s="49">
+      <c r="D58" s="50"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="30">
+        <v>1</v>
+      </c>
+      <c r="I58" s="30">
         <v>19.899999999999999</v>
       </c>
-      <c r="J58" s="51"/>
-      <c r="K58" s="51"/>
-      <c r="L58" s="51"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="50"/>
     </row>
     <row r="59" spans="1:12" ht="18" customHeight="1">
-      <c r="A59" s="49" t="s">
+      <c r="A59" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="B59" s="50"/>
-      <c r="C59" s="49">
+      <c r="B59" s="31"/>
+      <c r="C59" s="30">
         <v>10</v>
       </c>
-      <c r="D59" s="51"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="49">
-        <v>1</v>
-      </c>
-      <c r="I59" s="49">
+      <c r="D59" s="50"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="30">
+        <v>1</v>
+      </c>
+      <c r="I59" s="30">
         <v>10</v>
       </c>
-      <c r="J59" s="51"/>
-      <c r="K59" s="51"/>
-      <c r="L59" s="51"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="116">
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
     <mergeCell ref="L56:L59"/>
     <mergeCell ref="D56:D59"/>
     <mergeCell ref="E56:E59"/>
@@ -4654,101 +4749,6 @@
     <mergeCell ref="G51:G52"/>
     <mergeCell ref="J51:J52"/>
     <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
